--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\CSC289\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\ProjectFolder\CSC289\ProjectGoals\BurnDownCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C2DB2-34C4-49E0-ABA9-BC10534EED71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82109C34-135C-4474-985A-6E619E649729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,8 +350,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -395,28 +420,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -433,40 +436,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -475,31 +469,80 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -817,693 +860,640 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62BAA-774C-4B40-AD93-969A55E92B30}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8">
+      <c r="B4" s="2"/>
+      <c r="C4" s="39">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="29">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="10">
+      <c r="B5" s="2"/>
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="17">
+      <c r="B6" s="2"/>
+      <c r="C6" s="41">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="11">
+      <c r="B7" s="2"/>
+      <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13">
+      <c r="B8" s="2"/>
+      <c r="C8" s="43">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="13">
+      <c r="B9" s="2"/>
+      <c r="C9" s="43">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13">
+      <c r="B10" s="2"/>
+      <c r="C10" s="43">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="11">
+      <c r="B11" s="2"/>
+      <c r="C11" s="42">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="11">
+      <c r="B12" s="2"/>
+      <c r="C12" s="42">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="12">
+      <c r="B13" s="2"/>
+      <c r="C13" s="44">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10">
+      <c r="B14" s="2"/>
+      <c r="C14" s="40">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="24"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="12">
+      <c r="B15" s="2"/>
+      <c r="C15" s="44">
         <v>5</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="11">
+      <c r="B16" s="2"/>
+      <c r="C16" s="42">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="14">
+      <c r="B17" s="2"/>
+      <c r="C17" s="45">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="16">
+      <c r="B18" s="2"/>
+      <c r="C18" s="46">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="16">
+      <c r="B19" s="2"/>
+      <c r="C19" s="46">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="16">
+      <c r="B20" s="2"/>
+      <c r="C20" s="46">
         <v>3</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="16">
+      <c r="B21" s="2"/>
+      <c r="C21" s="46">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="16">
+      <c r="B22" s="2"/>
+      <c r="C22" s="46">
         <v>3</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="15">
+      <c r="B23" s="38"/>
+      <c r="C23" s="47">
         <v>5</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="11">
+      <c r="B24" s="2"/>
+      <c r="C24" s="42">
         <v>3</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="10">
+      <c r="B25" s="2"/>
+      <c r="C25" s="40">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="11">
+      <c r="B26" s="2"/>
+      <c r="C26" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="13">
+      <c r="B27" s="2"/>
+      <c r="C27" s="43">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="11">
+      <c r="B28" s="2"/>
+      <c r="C28" s="42">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="39">
         <v>2</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8">
+      <c r="B30" s="2"/>
+      <c r="C30" s="39">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="8">
+      <c r="B31" s="2"/>
+      <c r="C31" s="39">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="8">
+      <c r="B32" s="2"/>
+      <c r="C32" s="39">
         <v>8</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="8">
+      <c r="B33" s="2"/>
+      <c r="C33" s="39">
         <v>5</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="D33" s="24"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="9">
+      <c r="B34" s="2"/>
+      <c r="C34" s="39">
         <v>3</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="8">
+      <c r="B35" s="2"/>
+      <c r="C35" s="39">
         <v>1</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="8">
+      <c r="B36" s="2"/>
+      <c r="C36" s="39">
         <v>5</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="8">
+      <c r="B37" s="2"/>
+      <c r="C37" s="39">
         <v>3</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="8">
+      <c r="B38" s="2"/>
+      <c r="C38" s="39">
         <v>13</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8">
+      <c r="B39" s="37"/>
+      <c r="C39" s="39">
         <f>SUM(C5:C38)</f>
         <v>106</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>10</v>
-      </c>
-      <c r="B44" s="22">
-        <v>10</v>
-      </c>
-      <c r="C44" s="23">
-        <v>6</v>
-      </c>
-      <c r="D44" s="24">
-        <v>10</v>
-      </c>
-      <c r="E44" s="25">
-        <v>10</v>
-      </c>
-      <c r="F44" s="26">
-        <v>9</v>
-      </c>
-      <c r="G44" s="27">
-        <v>5</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="35"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="A41:M42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D40"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1522,91 +1512,91 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="8">
         <v>10</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="9">
         <v>9</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="10">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\ProjectFolder\CSC289\ProjectGoals\BurnDownCharts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CSC289\ProjectGoals\BurnDownCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82109C34-135C-4474-985A-6E619E649729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E0BF3-971E-4A2E-946B-DF7F23408AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="28800" yWindow="2430" windowWidth="21600" windowHeight="13170" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -457,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,41 +476,16 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,6 +512,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +859,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,48 +869,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="A2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -924,44 +922,44 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -969,12 +967,14 @@
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="39">
+      <c r="B4" s="30">
         <v>0</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="29">
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="26">
         <v>10</v>
       </c>
       <c r="F4" s="5">
@@ -1006,12 +1006,14 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="40">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="31">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1029,389 +1031,457 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="41">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24"/>
+      <c r="B6" s="32">
+        <v>5</v>
+      </c>
+      <c r="C6" s="32">
+        <v>5</v>
+      </c>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24"/>
+      <c r="B7" s="33">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="43">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24"/>
+      <c r="B8" s="34">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34">
+        <v>5</v>
+      </c>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="43">
+      <c r="B9" s="34">
+        <v>5</v>
+      </c>
+      <c r="C9" s="34">
         <v>2</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="43">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
         <v>2</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="42">
+      <c r="B11" s="33">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33">
         <v>2</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="42">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24"/>
+      <c r="B12" s="33">
+        <v>5</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="44">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="40">
+      <c r="B14" s="31">
+        <v>5</v>
+      </c>
+      <c r="C14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="L14" s="22"/>
+      <c r="D14" s="40"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="44">
-        <v>5</v>
-      </c>
-      <c r="D15" s="24"/>
+      <c r="B15" s="35">
+        <v>8</v>
+      </c>
+      <c r="C15" s="35">
+        <v>5</v>
+      </c>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="42">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24"/>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="45">
-        <v>5</v>
-      </c>
-      <c r="D17" s="24"/>
+      <c r="B17" s="36">
+        <v>3</v>
+      </c>
+      <c r="C17" s="36">
+        <v>5</v>
+      </c>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="46">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24"/>
+      <c r="B18" s="37">
+        <v>8</v>
+      </c>
+      <c r="C18" s="37">
+        <v>1</v>
+      </c>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24"/>
+      <c r="B19" s="37">
+        <v>3</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="46">
+      <c r="B20" s="37">
+        <v>5</v>
+      </c>
+      <c r="C20" s="37">
         <v>3</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="46">
-        <v>1</v>
-      </c>
-      <c r="D21" s="24"/>
+      <c r="B21" s="37">
+        <v>3</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="46">
+      <c r="B22" s="37">
+        <v>1</v>
+      </c>
+      <c r="C22" s="37">
         <v>3</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="47">
-        <v>5</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="38">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="42">
+      <c r="B24" s="33">
+        <v>5</v>
+      </c>
+      <c r="C24" s="33">
         <v>3</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="40">
-        <v>1</v>
-      </c>
-      <c r="D25" s="24"/>
+      <c r="B25" s="31">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="42">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24"/>
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="43">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24"/>
+      <c r="B27" s="34">
+        <v>1</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="42">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24"/>
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33">
+        <v>1</v>
+      </c>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="39">
+      <c r="B29" s="30">
         <v>2</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="C29" s="30">
+        <v>2</v>
+      </c>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="39">
-        <v>5</v>
-      </c>
-      <c r="D30" s="24"/>
+      <c r="B30" s="30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="39">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24"/>
+      <c r="B31" s="30">
+        <v>3</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1</v>
+      </c>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="39">
+      <c r="B32" s="30">
+        <v>5</v>
+      </c>
+      <c r="C32" s="30">
         <v>8</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="39">
-        <v>5</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="K33" s="22"/>
+      <c r="B33" s="30">
+        <v>8</v>
+      </c>
+      <c r="C33" s="30">
+        <v>5</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="39">
+      <c r="B34" s="30">
+        <v>5</v>
+      </c>
+      <c r="C34" s="30">
         <v>3</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="39">
-        <v>1</v>
-      </c>
-      <c r="D35" s="24"/>
+      <c r="B35" s="30">
+        <v>1</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1</v>
+      </c>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="39">
-        <v>5</v>
-      </c>
-      <c r="D36" s="24"/>
+      <c r="B36" s="30">
+        <v>3</v>
+      </c>
+      <c r="C36" s="30">
+        <v>5</v>
+      </c>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="39">
+      <c r="B37" s="30">
+        <v>5</v>
+      </c>
+      <c r="C37" s="30">
         <v>3</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="39">
+      <c r="B38" s="30">
         <v>13</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="C38" s="30">
+        <v>13</v>
+      </c>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="39">
+      <c r="B39" s="30">
+        <v>13</v>
+      </c>
+      <c r="C39" s="30">
         <f>SUM(C5:C38)</f>
         <v>106</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
@@ -1471,22 +1541,22 @@
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1512,21 +1582,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CSC289\ProjectGoals\BurnDownCharts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\SPRING2021\CSC-289-0B01-Programming Capstone Project\MODULE_4\M4R1\GITHUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E0BF3-971E-4A2E-946B-DF7F23408AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439AD16-10CD-4FB3-B0F0-F0EEEB7EDAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2430" windowWidth="21600" windowHeight="13170" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="0" yWindow="2655" windowWidth="14835" windowHeight="12945" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Story Points (Fibonacci Scale)</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">EPIC  </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -856,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62BAA-774C-4B40-AD93-969A55E92B30}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="32">
         <v>5</v>
@@ -1141,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" s="35">
         <v>5</v>
@@ -1177,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="37">
         <v>1</v>
@@ -1201,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="37">
         <v>3</v>
@@ -1252,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="33">
         <v>3</v>
@@ -1324,7 +1327,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" s="30">
         <v>5</v>
@@ -1385,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="30">
         <v>1</v>
@@ -1433,42 +1436,37 @@
         <v>39</v>
       </c>
       <c r="B39" s="30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C39" s="30">
-        <f>SUM(C5:C38)</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="30">
+        <f>SUM(B6:B39)</f>
         <v>106</v>
       </c>
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
+      <c r="C40" s="30">
+        <f>SUM(C6:C39)</f>
+        <v>106</v>
+      </c>
       <c r="D40" s="40"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -1486,38 +1484,38 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
+    <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -1541,29 +1539,47 @@
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D40"/>
+    <mergeCell ref="D1:D41"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
+++ b/ProjectGoals/BurnDownCharts/BurndownChart_BarcodeProject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCHOOL\SPRING2021\CSC-289-0B01-Programming Capstone Project\MODULE_4\M4R1\GITHUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\ProjectFolder\CSC289\ProjectGoals\BurnDownCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439AD16-10CD-4FB3-B0F0-F0EEEB7EDAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6734B9-91CC-468D-BA70-5319B4008927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2655" windowWidth="14835" windowHeight="12945" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9F5DA96-304E-471A-B87A-5331446592AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Story Points" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Story Points (Fibonacci Scale)</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Registration Notification</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -482,8 +488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,15 +521,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,6 +535,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -859,61 +878,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C62BAA-774C-4B40-AD93-969A55E92B30}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -925,44 +944,46 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -970,14 +991,16 @@
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="26">
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>10</v>
       </c>
       <c r="F4" s="5">
@@ -1009,14 +1032,16 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1034,457 +1059,532 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>5</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40"/>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>5</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>5</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="32">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="32">
         <v>5</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>2</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="32">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="32">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>3</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="31">
         <v>2</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="31">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>5</v>
       </c>
-      <c r="C12" s="33">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40"/>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="35">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40"/>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="29">
         <v>5</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="29">
+        <v>6.5</v>
+      </c>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>3</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>5</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="33">
-        <v>1</v>
-      </c>
-      <c r="C16" s="33">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40"/>
+      <c r="B16" s="31">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="34">
         <v>3</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>5</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="35">
         <v>3</v>
       </c>
-      <c r="C18" s="37">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40"/>
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="35">
         <v>3</v>
       </c>
-      <c r="C19" s="37">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40"/>
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="37">
-        <v>1</v>
-      </c>
-      <c r="C20" s="37">
+      <c r="B20" s="35">
+        <v>1</v>
+      </c>
+      <c r="C20" s="35">
         <v>3</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>3</v>
       </c>
-      <c r="C21" s="37">
-        <v>1</v>
-      </c>
-      <c r="D21" s="40"/>
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="37">
-        <v>1</v>
-      </c>
-      <c r="C22" s="37">
+      <c r="B22" s="35">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35">
         <v>3</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="36">
         <v>3</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="36">
         <v>5</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="36">
+        <v>4</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="33">
-        <v>1</v>
-      </c>
-      <c r="C24" s="33">
+      <c r="B24" s="31">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31">
         <v>3</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31">
-        <v>1</v>
-      </c>
-      <c r="C25" s="31">
-        <v>1</v>
-      </c>
-      <c r="D25" s="40"/>
+      <c r="B25" s="29">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="33">
-        <v>1</v>
-      </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="D26" s="40"/>
+      <c r="B26" s="31">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="34">
-        <v>1</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1</v>
-      </c>
-      <c r="D27" s="40"/>
+      <c r="B27" s="32">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="33">
-        <v>1</v>
-      </c>
-      <c r="C28" s="33">
-        <v>1</v>
-      </c>
-      <c r="D28" s="40"/>
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <v>2</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>2</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="28">
         <v>3</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="28">
         <v>5</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="50">
+        <v>4</v>
+      </c>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="28">
         <v>3</v>
       </c>
-      <c r="C31" s="30">
-        <v>1</v>
-      </c>
-      <c r="D31" s="40"/>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+      <c r="D31" s="50">
+        <v>2</v>
+      </c>
+      <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="28">
         <v>5</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="28">
         <v>8</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="50">
+        <v>6.5</v>
+      </c>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="30">
-        <v>8</v>
-      </c>
-      <c r="C33" s="30">
-        <v>5</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="K33" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="B33" s="28">
+        <v>1</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1</v>
+      </c>
+      <c r="D33" s="50">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="30">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28">
+        <v>8</v>
+      </c>
+      <c r="C34" s="28">
         <v>5</v>
       </c>
-      <c r="C34" s="30">
-        <v>3</v>
-      </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="50">
+        <v>6.5</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="30">
-        <v>2</v>
-      </c>
-      <c r="C35" s="30">
-        <v>1</v>
-      </c>
-      <c r="D35" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="28">
+        <v>5</v>
+      </c>
+      <c r="C35" s="28">
+        <v>3</v>
+      </c>
+      <c r="D35" s="50">
+        <v>4</v>
+      </c>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="30">
-        <v>3</v>
-      </c>
-      <c r="C36" s="30">
-        <v>5</v>
-      </c>
-      <c r="D36" s="40"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="28">
+        <v>2</v>
+      </c>
+      <c r="C36" s="28">
+        <v>1</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="30">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28">
+        <v>3</v>
+      </c>
+      <c r="C37" s="28">
         <v>5</v>
       </c>
-      <c r="C37" s="30">
-        <v>3</v>
-      </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="50">
+        <v>4</v>
+      </c>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="30">
-        <v>13</v>
-      </c>
-      <c r="C38" s="30">
-        <v>13</v>
-      </c>
-      <c r="D38" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="28">
+        <v>5</v>
+      </c>
+      <c r="C38" s="28">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="30">
-        <v>1</v>
-      </c>
-      <c r="C39" s="30">
-        <v>1</v>
-      </c>
-      <c r="D39" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="28">
+        <v>1</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="28">
+        <v>13</v>
+      </c>
+      <c r="C40" s="28">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="30">
-        <f>SUM(B6:B39)</f>
-        <v>106</v>
-      </c>
-      <c r="C40" s="30">
-        <f>SUM(C6:C39)</f>
-        <v>106</v>
-      </c>
-      <c r="D40" s="40"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="B41" s="28">
+        <f>SUM(B6:B40)</f>
+        <v>107</v>
+      </c>
+      <c r="C41" s="28">
+        <f>SUM(C6:C40)</f>
+        <v>107</v>
+      </c>
+      <c r="D41" s="28">
+        <f>SUM(D6:D40)</f>
+        <v>107</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1502,38 +1602,38 @@
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
+    <row r="44" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
@@ -1557,29 +1657,47 @@
       <c r="P46" s="17"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D41"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E1:Q2"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1598,21 +1716,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
